--- a/biology/Médecine/Clorazépate/Clorazépate.xlsx
+++ b/biology/Médecine/Clorazépate/Clorazépate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cloraz%C3%A9pate</t>
+          <t>Clorazépate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le clorazépate Écouter est un médicament de la famille des benzodiazépines[2]. Il est utilisé pour ses propriétés anxiolytiques, anticonvulsives, myorelaxantes et sédatives.
+Le clorazépate Écouter est un médicament de la famille des benzodiazépines. Il est utilisé pour ses propriétés anxiolytiques, anticonvulsives, myorelaxantes et sédatives.
 C'est son sel de potassium qui est commercialisé, le clorazépate dipotassique Écouter. Son nom systématique est 7-chloro-2,3-dihydro-2-oxo-5-phényl-1H-1,4-benzodiazépine-3-carboxylate de potassium et d'hydroxyde de potassium.
 Le clorazépate est ensuite métabolisé en Nordazépam puis en Oxazépam.
 Le clorazépate est commercialisé sous les marques Tranxène et Tranxilium par les laboratoires Sanofi.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cloraz%C3%A9pate</t>
+          <t>Clorazépate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,52 +527,125 @@
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le clorazépate est utilisé principalement pour le traitement de l'anxiété et des attaques de panique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clorazépate est utilisé principalement pour le traitement de l'anxiété et des attaques de panique.
 Il est parfois utilisé dans la prise en charge du delirium tremens et du syndrome de sevrage alcoolique.
 Il est un anxiolytique utile en raison de sa longue demi-vie et c'est à elle que le Tranxène doit sa réputation.[réf. nécessaire] 
-Forme galénique et quantité de principe actif par unité
-En Suisse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Indications thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Forme galénique et quantité de principe actif par unité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En Suisse
 capsules à 5, 10, 20 mg Dikalii clorazepas ;
 comprimés pelliculés à 20, 50 mg Dikalii clorazepas.
 En France
 capsules de 5, 10 et 20 mg (Tranxène) ; 
-poudre pour solution injectable de 20 mg (Tranxène).
-Indications/Possibilités d’emploi
-États d’anxiété et ses manifestations sous forme de nervosité, tensions, agitations, troubles et affections neurovégétatifs et psychosomatiques.
+poudre pour solution injectable de 20 mg (Tranxène).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Indications thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Indications/Possibilités d’emploi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>États d’anxiété et ses manifestations sous forme de nervosité, tensions, agitations, troubles et affections neurovégétatifs et psychosomatiques.
 Sevrage éthylique et prévention du delirium tremens.
 Tétanos (en réanimation)
 Sevrage des benzodiazepines dû à sa longue demi-vie
-La version dosée à 20 milligrammes est classée en France comme stupéfiant depuis 2012[3] et nécessite en conséquence une ordonnance sécurisée avec prescription du type de médicament (gélule) et de la posologie (vingt milligrammes) en toutes lettres sur une durée maximale de 28 jours.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+La version dosée à 20 milligrammes est classée en France comme stupéfiant depuis 2012 et nécessite en conséquence une ordonnance sécurisée avec prescription du type de médicament (gélule) et de la posologie (vingt milligrammes) en toutes lettres sur une durée maximale de 28 jours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Posologie/Mode d’emploi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Durée du traitement
 À cause du risque de dépendance, les benzodiazépines ne devraient être administrées que pendant une durée limitée : quelques jours dans le cas de troubles aigus, 2 à 4 semaines en général lors de troubles chroniques.
@@ -582,31 +667,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Allergie connue aux benzodiazépines ou un des excipients
 Hypersensibilité aux benzodiazépines
@@ -622,31 +709,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mises en garde et précautions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Myasthénie : l’administration de benzodiazépines aggrave les symptômes. Il est recommandé de n’utiliser Tranxène que de manière exceptionnelle et sous surveillance médicale accrue.
 Rétention urinaire et glaucome à angle fermé.
@@ -692,31 +781,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Propriétés/Effets</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Code ATC : N05BA05
 Mécanisme d’action
@@ -735,31 +826,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Absorption : Après administration orale, indépendamment du pH gastrique, le clorazépate dipotassique est presque totalement converti (effet de premier passage présystémique) en N-desméthyldiazépam, principal métabolite actif ; celui-ci est alors rapidement absorbé. Les concentrations plasmatiques maximales sont atteintes environ 1 heure après l’administration.
 Distribution : La fixation protéique du clorazépate dipotassique et de son métabolite principal, le N-desméthyldiazépam, est supérieure à 95 %. Le volume de distribution du N-desméthyldiazépam est de 90 l.
@@ -775,31 +868,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Les plus fréquents sont la somnolence et les vertiges. Son emploi prolongé entraîne un risque modéré de pharmacodépendance.
 Les effets indésirables dus au Tranxène sont en rapport avec la dose et la sensibilité individuelle du patient.
@@ -824,31 +919,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Surdosage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes d’un surdosage se manifestent principalement par un sommeil profond pouvant aller jusqu’au coma, selon la quantité administrée.
 Le pronostic est en général bénin, en l’absence toutefois d’association à d’autres psychotropes et à condition que le sujet soit traité.
@@ -859,31 +956,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clorazépate</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cloraz%C3%A9pate</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Toxicité aigüe/chronique/subchronique
 Les benzodiazepines ont une faible toxicité aiguë.
